--- a/project/send/Inquerito.xlsx
+++ b/project/send/Inquerito.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">Cultura Organizacional</t>
   </si>
   <si>
     <t xml:space="preserve">Nome:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabel Guedes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentação Técnica</t>
   </si>
   <si>
     <t xml:space="preserve">A afirmação não se aplica rigorosamente nada à minha organização</t>
@@ -262,7 +268,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -360,8 +366,8 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -388,10 +394,14 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
@@ -423,38 +433,38 @@
     </row>
     <row r="7" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I8" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -466,10 +476,10 @@
     </row>
     <row r="10" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -481,10 +491,10 @@
     </row>
     <row r="11" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -496,10 +506,10 @@
     </row>
     <row r="12" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -511,10 +521,10 @@
     </row>
     <row r="13" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -526,10 +536,10 @@
     </row>
     <row r="14" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -541,10 +551,10 @@
     </row>
     <row r="15" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -556,10 +566,10 @@
     </row>
     <row r="16" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -571,10 +581,10 @@
     </row>
     <row r="17" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -586,10 +596,10 @@
     </row>
     <row r="18" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -601,10 +611,10 @@
     </row>
     <row r="19" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -616,10 +626,10 @@
     </row>
     <row r="20" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -631,10 +641,10 @@
     </row>
     <row r="21" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -646,10 +656,10 @@
     </row>
     <row r="22" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -661,10 +671,10 @@
     </row>
     <row r="23" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -676,10 +686,10 @@
     </row>
     <row r="24" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -691,14 +701,15 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="true" objects="true" scenarios="true"/>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>

--- a/project/send/Inquerito.xlsx
+++ b/project/send/Inquerito.xlsx
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Cultura Organizacional</t>
   </si>
   <si>
     <t xml:space="preserve">Nome:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isabel Guedes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentação Técnica</t>
   </si>
   <si>
     <t xml:space="preserve">A afirmação não se aplica rigorosamente nada à minha organização</t>
@@ -367,7 +361,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -394,14 +388,10 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
@@ -433,38 +423,38 @@
     </row>
     <row r="7" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I8" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -476,10 +466,10 @@
     </row>
     <row r="10" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -491,10 +481,10 @@
     </row>
     <row r="11" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -506,10 +496,10 @@
     </row>
     <row r="12" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -521,10 +511,10 @@
     </row>
     <row r="13" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -536,10 +526,10 @@
     </row>
     <row r="14" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -551,10 +541,10 @@
     </row>
     <row r="15" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -566,10 +556,10 @@
     </row>
     <row r="16" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -581,10 +571,10 @@
     </row>
     <row r="17" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -596,10 +586,10 @@
     </row>
     <row r="18" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -611,10 +601,10 @@
     </row>
     <row r="19" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -626,10 +616,10 @@
     </row>
     <row r="20" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -641,10 +631,10 @@
     </row>
     <row r="21" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -656,10 +646,10 @@
     </row>
     <row r="22" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -671,10 +661,10 @@
     </row>
     <row r="23" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -686,10 +676,10 @@
     </row>
     <row r="24" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -701,7 +691,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
